--- a/data/trans_orig/P55S5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S5-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92FB5D9B-B56A-4685-9526-529EA5C6D919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0DAFA5-7459-4D0A-9DC1-31E3084C886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{16E26F75-EA71-4EFF-BF15-781BEC34E9B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0586E6F-4BDA-49E7-AE3C-D657C96E1E17}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCEE47-46E5-43EB-9BC7-052CF9E8FE5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA76E58-8D64-40C7-861C-269D3F6A27A8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S5-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0DAFA5-7459-4D0A-9DC1-31E3084C886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D11FB478-7869-4969-B864-2225B55FB921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0586E6F-4BDA-49E7-AE3C-D657C96E1E17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECFA815D-272B-433D-9577-7DF67E870C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda privada (pagada)</t>
@@ -74,7 +74,7 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,10 +86,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA76E58-8D64-40C7-861C-269D3F6A27A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D90A2-CCC5-4838-9EE9-59CC4DC6D9F2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
